--- a/企业微信bbs表结构.xlsx
+++ b/企业微信bbs表结构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
   <si>
     <t>企业微信bbs表结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +255,18 @@
   </si>
   <si>
     <t>mobile_bbs_post表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,7 +425,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -426,15 +438,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -442,15 +469,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -759,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -778,18 +796,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -804,7 +822,7 @@
       <c r="D2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
@@ -817,27 +835,27 @@
       <c r="I2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="10" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="5"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -852,18 +870,18 @@
       <c r="D4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -878,20 +896,18 @@
       <c r="D5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
@@ -904,20 +920,20 @@
       <c r="D6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
@@ -932,20 +948,20 @@
       <c r="D7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
@@ -960,18 +976,20 @@
       <c r="D8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -984,38 +1002,38 @@
       <c r="D9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="7"/>
       <c r="I10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1030,38 +1048,38 @@
       <c r="D11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="13"/>
       <c r="I12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
@@ -1070,16 +1088,22 @@
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
@@ -1088,24 +1112,16 @@
       <c r="B14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
@@ -1114,113 +1130,127 @@
       <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="10" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="5"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J18" s="5"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:J1"/>
@@ -1228,7 +1258,7 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="C13:C15"/>
-    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H11:H13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
